--- a/biology/Botanique/Haruka_(agrume)/Haruka_(agrume).xlsx
+++ b/biology/Botanique/Haruka_(agrume)/Haruka_(agrume).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haruka est un agrume japonais récent principalement cultivé dans les préfectures d'Hiroshima et d'Ehime[1]. Le fruit est jaune à maturité (février) et sucré. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haruka est un agrume japonais récent principalement cultivé dans les préfectures d'Hiroshima et d'Ehime. Le fruit est jaune à maturité (février) et sucré. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">はるか (haruka) est un adjectif qui indique une distance, un éloignement, une différence importante, il signifie «beaucoup plus»[2]. Le nom de l'agrume lors de la demande d'enregistrement était Yohko qui est un prénom féminin[3], Haruka est également un prénom féminin, l'actrice Haruka Ayase est bien connue au Japon[4]. L'Encyclopédie des fruits (2016) le nomme サラダみかん (sarada mikan) mandarine pour salade[5] (on en trouve dans des recettes de salades aigres-douces[6]).  
-Tokurou Shimizu et al. ont analysé les marqueurs ADN des génomes nucléaires de nombreux agrumes japonais en 2016 et montré que l'ascendant hyuganatsu avait été pollinisé par du pollen de natsudaidai[7]. Le nom botanique actuel est : Hyuganatsu (C. × tamurana) × Natsumikan (C. × natsudaidai).  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はるか (haruka) est un adjectif qui indique une distance, un éloignement, une différence importante, il signifie «beaucoup plus». Le nom de l'agrume lors de la demande d'enregistrement était Yohko qui est un prénom féminin, Haruka est également un prénom féminin, l'actrice Haruka Ayase est bien connue au Japon. L'Encyclopédie des fruits (2016) le nomme サラダみかん (sarada mikan) mandarine pour salade (on en trouve dans des recettes de salades aigres-douces).  
+Tokurou Shimizu et al. ont analysé les marqueurs ADN des génomes nucléaires de nombreux agrumes japonais en 2016 et montré que l'ascendant hyuganatsu avait été pollinisé par du pollen de natsudaidai. Le nom botanique actuel est : Hyuganatsu (C. × tamurana) × Natsumikan (C. × natsudaidai).  
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire et origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante sélectionnée en 1980 par Tokuo Ishii résulte d'un semis heureux de graines d'un hyuganatsu de son jardin à Nijo-cho, Itoshima-gun, préfecture de Fukuoka. La mise en culture date de 1993. Le cultivar a été enregistré en 1996[3], sa reproduction est libre de droits depuis 2014[8]. La production japonaise n'est pas importante: 2 000 t en 2013[3], 1 760 t en 2017.  La notoriété de Haruka n'a pas dépassé ses zones de production. On en trouve de rares spécimens de semis hors du Japon dans des collections privées[9]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante sélectionnée en 1980 par Tokuo Ishii résulte d'un semis heureux de graines d'un hyuganatsu de son jardin à Nijo-cho, Itoshima-gun, préfecture de Fukuoka. La mise en culture date de 1993. Le cultivar a été enregistré en 1996, sa reproduction est libre de droits depuis 2014. La production japonaise n'est pas importante: 2 000 t en 2013, 1 760 t en 2017.  La notoriété de Haruka n'a pas dépassé ses zones de production. On en trouve de rares spécimens de semis hors du Japon dans des collections privées. 
 </t>
         </is>
       </c>
@@ -574,15 +590,122 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haruka est un beau fruit de 200 à 240 g[1],[3], diamètre de 7 à 10 cm[10], jaune vif[11], moyennement juteux et nettement sucré[12]. La maturité est de fin février à mars.  
-un gout sucré
-Une publication du Centre de recherche agricole de Fukuoka (2000) décrit les étapes de la maturation du fruit. La diminution de l'acidité est précoce, dès novembre elle est inférieure à celle de son géniteur (1 g pour 100 ml) et les niveaux d'acide citrique et malique plus bas que la plupart des agrumes. Le niveau de sucre atteint 14° brix dès mars, le ratio de sucrose est très élevé (70 %)[13]. La couleur jaune citron du fruit et la douceur de la pulpe font contraste, s'y ajoute une arrière gout qualifié d'élégant[14]. 
-une jolie forme
-Le fruit est sphérique, légèrement aplati avec un sommet marqué d'un cou ou mammilla (zone surélevée en haut du fruit, comme le dekopon) plus ou moins imposant selon les cultivars[15], à la base l'apex est entouré d'un anneau concave bien visible. La couleur de la chair est blanc-jaunâtre avec des graines (polyembryonnées) nombreuses[3] contenues dans 10 à 11 segments à peau fine[10]. Le mésocarpe (albédo) est adhérent ce qui rend le fruit difficile à peler à la main[12]. C'est pourquoi les sources japonaises conseillent de le découper comme le hyuganatsu[16], au couteau en tournant autour du centre et des graines[17]. On peut aussi le peler et extraire la pulpe à la manière d'un pamplemousse[18].
-utilisation
-Le fruit est consommé en fruit de table, on en fait un bonbon Puccho gommeux et doux[19].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haruka est un beau fruit de 200 à 240 g diamètre de 7 à 10 cm, jaune vif, moyennement juteux et nettement sucré. La maturité est de fin février à mars.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Haruka_(agrume)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haruka_(agrume)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>un gout sucré</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une publication du Centre de recherche agricole de Fukuoka (2000) décrit les étapes de la maturation du fruit. La diminution de l'acidité est précoce, dès novembre elle est inférieure à celle de son géniteur (1 g pour 100 ml) et les niveaux d'acide citrique et malique plus bas que la plupart des agrumes. Le niveau de sucre atteint 14° brix dès mars, le ratio de sucrose est très élevé (70 %). La couleur jaune citron du fruit et la douceur de la pulpe font contraste, s'y ajoute une arrière gout qualifié d'élégant. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haruka_(agrume)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haruka_(agrume)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>une jolie forme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est sphérique, légèrement aplati avec un sommet marqué d'un cou ou mammilla (zone surélevée en haut du fruit, comme le dekopon) plus ou moins imposant selon les cultivars, à la base l'apex est entouré d'un anneau concave bien visible. La couleur de la chair est blanc-jaunâtre avec des graines (polyembryonnées) nombreuses contenues dans 10 à 11 segments à peau fine. Le mésocarpe (albédo) est adhérent ce qui rend le fruit difficile à peler à la main. C'est pourquoi les sources japonaises conseillent de le découper comme le hyuganatsu, au couteau en tournant autour du centre et des graines. On peut aussi le peler et extraire la pulpe à la manière d'un pamplemousse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haruka_(agrume)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haruka_(agrume)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>utilisation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est consommé en fruit de table, on en fait un bonbon Puccho gommeux et doux.
 </t>
         </is>
       </c>
